--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/战斗.xlsx
@@ -1,26 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571DA942-2E13-4268-B860-D51077B86243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3250" yWindow="1550" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="211">
+  <si>
+    <t>Jyx2Configs.Jyx2ConfigBattle</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MapScene</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>TeamMates</t>
+  </si>
+  <si>
+    <t>AutoTeamMates</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -37,980 +58,973 @@
     <t>音乐</t>
   </si>
   <si>
+    <t>队友</t>
+  </si>
+  <si>
+    <t>自动队友</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>斗胡斐</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_0</t>
+  </si>
+  <si>
+    <t>中阎基计</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_1</t>
+  </si>
+  <si>
+    <t>杀阎基</t>
+  </si>
+  <si>
+    <t>救苗人凤</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_2</t>
+  </si>
+  <si>
+    <t>101,102,103,104</t>
+  </si>
+  <si>
+    <t>胡苗对决</t>
+  </si>
+  <si>
+    <t>千年人参</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_16</t>
+  </si>
+  <si>
+    <t>111,112,113,114,115</t>
+  </si>
+  <si>
+    <t>闯王宝藏</t>
+  </si>
+  <si>
+    <t>111,112,113,114,115,116,117,118,119,120</t>
+  </si>
+  <si>
     <t>明教分舵</t>
   </si>
   <si>
+    <t>Jyx2Battle_3</t>
+  </si>
+  <si>
+    <t>301,302,303,304</t>
+  </si>
+  <si>
     <t>光明左使</t>
   </si>
   <si>
+    <t>11,301,302,303,304,305,306,307,308,309,310</t>
+  </si>
+  <si>
+    <t>成昆奸计</t>
+  </si>
+  <si>
+    <t>光明顶前</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_5</t>
+  </si>
+  <si>
+    <t>12,14</t>
+  </si>
+  <si>
+    <t>决战六派</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_19</t>
+  </si>
+  <si>
+    <t>70,6,7,8,140,170,84,87,145,148,92,95,153,156,136,138,163,164</t>
+  </si>
+  <si>
+    <t>弒杀成昆</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_4</t>
+  </si>
+  <si>
+    <t>18,290,289,287,286,285,110,109,108,107,106,105,240,239,238,237,236,235,234,284</t>
+  </si>
+  <si>
+    <t>救王难姑</t>
+  </si>
+  <si>
+    <t>光明圣火</t>
+  </si>
+  <si>
+    <t>10,11,15,12,13,14</t>
+  </si>
+  <si>
+    <t>会七伤拳</t>
+  </si>
+  <si>
+    <t>8,151,152,153,154,155,156</t>
+  </si>
+  <si>
+    <t>闹崆峒</t>
+  </si>
+  <si>
+    <t>8,155,156,157,158,159,160</t>
+  </si>
+  <si>
+    <t>救庸医</t>
+  </si>
+  <si>
+    <t>7,91,92,93,94,95,96</t>
+  </si>
+  <si>
+    <t>闹昆仑</t>
+  </si>
+  <si>
+    <t>7,95,96,97,98,99,100</t>
+  </si>
+  <si>
+    <t>夺倚天剑</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_20</t>
+  </si>
+  <si>
+    <t>峨嵋围攻</t>
+  </si>
+  <si>
+    <t>141,142,143,144,145,146,147,148,149,150</t>
+  </si>
+  <si>
+    <t>三丰指导</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_14</t>
+  </si>
+  <si>
+    <t>闯见性峰</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+  </si>
+  <si>
+    <t>181,182,183</t>
+  </si>
+  <si>
+    <t>斗定闲</t>
+  </si>
+  <si>
+    <t>21,181,189,183,190,185,186,187,188</t>
+  </si>
+  <si>
+    <t>斗泰山</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_10</t>
+  </si>
+  <si>
+    <t>201,202,203,204</t>
+  </si>
+  <si>
+    <t>斗天门</t>
+  </si>
+  <si>
+    <t>23,209,202,203,204,205,210,207,208</t>
+  </si>
+  <si>
+    <t>闯衡山</t>
+  </si>
+  <si>
+    <t>171,172,173</t>
+  </si>
+  <si>
+    <t>斗莫大</t>
+  </si>
+  <si>
+    <t>20,171,172,178,179,175,176,177</t>
+  </si>
+  <si>
+    <t>闯嵩山</t>
+  </si>
+  <si>
+    <t>191,192,193,194,195,196,197,198,199,200</t>
+  </si>
+  <si>
+    <t>徐降天门</t>
+  </si>
+  <si>
+    <t>徐降定闲</t>
+  </si>
+  <si>
     <t>徐降莫大</t>
   </si>
   <si>
     <t>徐降左</t>
   </si>
   <si>
+    <t>令降天门</t>
+  </si>
+  <si>
+    <t>令降定闲</t>
+  </si>
+  <si>
     <t>令降莫大</t>
   </si>
   <si>
     <t>令降左</t>
   </si>
   <si>
+    <t>再斗嵩山</t>
+  </si>
+  <si>
+    <t>22,195,192,196,194,191,193,197,198,199,200</t>
+  </si>
+  <si>
+    <t>再斗定闲</t>
+  </si>
+  <si>
+    <t>21,189,190,183,184,185,186,187,188</t>
+  </si>
+  <si>
+    <t>再斗天门</t>
+  </si>
+  <si>
+    <t>23,202,203,209,210,206,207,208</t>
+  </si>
+  <si>
+    <t>再斗莫大</t>
+  </si>
+  <si>
+    <t>20,171,172,179,174,175,176,177</t>
+  </si>
+  <si>
+    <t>杀费彬</t>
+  </si>
+  <si>
+    <t>194,192,191</t>
+  </si>
+  <si>
+    <t>斗丹青生</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_6</t>
+  </si>
+  <si>
+    <t>斗秃笔翁</t>
+  </si>
+  <si>
+    <t>斗黑白子</t>
+  </si>
+  <si>
+    <t>斗黄钟公</t>
+  </si>
+  <si>
+    <t>斗四友</t>
+  </si>
+  <si>
+    <t>31,32,33,34</t>
+  </si>
+  <si>
+    <t>斗林平之</t>
+  </si>
+  <si>
     <t>青城四秀</t>
   </si>
   <si>
+    <t>Jyx2Battle_22</t>
+  </si>
+  <si>
+    <t>211,212,213,214</t>
+  </si>
+  <si>
+    <t>斗余沧海</t>
+  </si>
+  <si>
+    <t>24,211,213,214,215,216</t>
+  </si>
+  <si>
+    <t>平之复仇</t>
+  </si>
+  <si>
+    <t>24,214,212,216,218,220</t>
+  </si>
+  <si>
+    <t>斗平一指</t>
+  </si>
+  <si>
+    <t>杀田伯光</t>
+  </si>
+  <si>
+    <t>东方不败</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_23</t>
+  </si>
+  <si>
+    <t>27,31,32,33,34,231,232,233,234,235,236,237,238,239,240</t>
+  </si>
+  <si>
+    <t>葵花宝典</t>
+  </si>
+  <si>
+    <t>26,31,32,33,34,231,232,233,234,235,236,237,238,239,240</t>
+  </si>
+  <si>
     <t>笑傲江湖</t>
   </si>
   <si>
+    <t>19,170,169,164,20,180,175,173,21,190,184,186,22,200,199,198,23,210,209,208</t>
+  </si>
+  <si>
+    <t>任与东方</t>
+  </si>
+  <si>
+    <t>0,26</t>
+  </si>
+  <si>
     <t>凌霄城外</t>
   </si>
   <si>
+    <t>241,242,243</t>
+  </si>
+  <si>
+    <t>斗白万剑</t>
+  </si>
+  <si>
+    <t>战雪山派</t>
+  </si>
+  <si>
+    <t>43,241,242,243,244,245,246,247,248,249</t>
+  </si>
+  <si>
     <t>蜘蛛洞一</t>
   </si>
   <si>
+    <t>Jyx2Battle_17</t>
+  </si>
+  <si>
+    <t>121,122,123,124</t>
+  </si>
+  <si>
     <t>蜘蛛洞二</t>
   </si>
   <si>
     <t>蜘蛛洞三</t>
   </si>
   <si>
+    <t>121,122,123,124,125,126,127,128,129</t>
+  </si>
+  <si>
     <t>蜘蛛洞四</t>
   </si>
   <si>
     <t>蜘蛛洞五</t>
   </si>
   <si>
+    <t>121,122,123,124,125</t>
+  </si>
+  <si>
     <t>救神鵰</t>
   </si>
   <si>
+    <t>战老顽童</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_11</t>
+  </si>
+  <si>
+    <t>杀一灯</t>
+  </si>
+  <si>
+    <t>战欧阳克</t>
+  </si>
+  <si>
+    <t>铁掌帮外</t>
+  </si>
+  <si>
+    <t>281,282,289,284</t>
+  </si>
+  <si>
+    <t>战裘千仞</t>
+  </si>
+  <si>
+    <t>67,281,282,289,284,285,286</t>
+  </si>
+  <si>
+    <t>再战铁掌</t>
+  </si>
+  <si>
+    <t>67,281,282,289,284,285,286,287,288,289,290</t>
+  </si>
+  <si>
+    <t>闯重阳宫</t>
+  </si>
+  <si>
+    <t>291,292,293,294,295,296</t>
+  </si>
+  <si>
+    <t>战丘处机</t>
+  </si>
+  <si>
+    <t>68,291,292,293,294,295,296,297,298,299,300</t>
+  </si>
+  <si>
+    <t>再战全真</t>
+  </si>
+  <si>
+    <t>挑战郭靖</t>
+  </si>
+  <si>
+    <t>战桃花岛</t>
+  </si>
+  <si>
+    <t>55,56</t>
+  </si>
+  <si>
+    <t>莽牯朱蛤</t>
+  </si>
+  <si>
+    <t>解剑岩前</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_8</t>
+  </si>
+  <si>
+    <t>81,82,83,84</t>
+  </si>
+  <si>
     <t>少林寺外</t>
   </si>
   <si>
+    <t>81,82,83,84,85,86</t>
+  </si>
+  <si>
+    <t>战玄慈</t>
+  </si>
+  <si>
+    <t>70,81,82,83,84,85,86,87,88,89,90</t>
+  </si>
+  <si>
+    <t>破打狗阵</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+  </si>
+  <si>
+    <t>271,272,273,274,275,276,277,278</t>
+  </si>
+  <si>
+    <t>单挑乔峰</t>
+  </si>
+  <si>
+    <t>丐帮四老</t>
+  </si>
+  <si>
+    <t>271,272,273,274,275,276,277,278,279,280</t>
+  </si>
+  <si>
+    <t>慕容奸计</t>
+  </si>
+  <si>
+    <t>杀丁春秋</t>
+  </si>
+  <si>
+    <t>46,261,262,263,264,265,266,267,268,269,270</t>
+  </si>
+  <si>
     <t>救阿紫</t>
   </si>
   <si>
+    <t>261,262,263,264,265</t>
+  </si>
+  <si>
+    <t>战游坦之</t>
+  </si>
+  <si>
+    <t>闯鳄鱼潭</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_13</t>
+  </si>
+  <si>
+    <t>311,312,313</t>
+  </si>
+  <si>
+    <t>斗岳老三</t>
+  </si>
+  <si>
+    <t>311,312,313,314,315,316,317,44</t>
+  </si>
+  <si>
+    <t>大轮寺外</t>
+  </si>
+  <si>
+    <t>251,252,253,254</t>
+  </si>
+  <si>
+    <t>大轮寺内</t>
+  </si>
+  <si>
+    <t>255,256,257,258</t>
+  </si>
+  <si>
+    <t>抢连城诀</t>
+  </si>
+  <si>
+    <t>155,158,99,94,203,206,211,217,286,287,288,289,103,105,107,109</t>
+  </si>
+  <si>
+    <t>闯神龙岛</t>
+  </si>
+  <si>
+    <t>101,102,103,104,105,106,107,108</t>
+  </si>
+  <si>
+    <t>斗洪教主</t>
+  </si>
+  <si>
+    <t>101,102,103,104,105,106,107,108,109,110,71</t>
+  </si>
+  <si>
+    <t>闯五毒教</t>
+  </si>
+  <si>
+    <t>221,222,223,224,225</t>
+  </si>
+  <si>
+    <t>找韦小宝</t>
+  </si>
+  <si>
+    <t>224,225,226,227,228</t>
+  </si>
+  <si>
+    <t>斗蓝凤凰</t>
+  </si>
+  <si>
+    <t>226,227,228,229,230,225,224,25</t>
+  </si>
+  <si>
+    <t>闯金轮寺</t>
+  </si>
+  <si>
+    <t>251,252,253,254,255</t>
+  </si>
+  <si>
+    <t>斗金轮王</t>
+  </si>
+  <si>
+    <t>251,252,253,254,255,62,256,257,258,259,260</t>
+  </si>
+  <si>
+    <t>战袁承志</t>
+  </si>
+  <si>
+    <t>大会斗唐</t>
+  </si>
+  <si>
+    <t>再斗金花</t>
+  </si>
+  <si>
+    <t>十大恶人</t>
+  </si>
+  <si>
+    <t>Jyx2Battle_25</t>
+  </si>
+  <si>
+    <t>71,67,62,60,51,26,22,19,8,7</t>
+  </si>
+  <si>
     <t>十大善人</t>
   </si>
   <si>
-    <t>斗胡斐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中阎基计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀阎基</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救苗人凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡苗对决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王宝藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成昆奸计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明顶前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>决战六派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弒杀成昆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救王难姑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明圣火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会七伤拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹崆峒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救庸医</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹昆仑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺倚天剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨嵋围攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三丰指导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯见性峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗泰山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯衡山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗莫大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯嵩山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐降天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐降定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>令降天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>令降定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗嵩山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗莫大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀费彬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗丹青生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗秃笔翁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗黑白子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗黄钟公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗四友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗林平之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗余沧海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平之复仇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗平一指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀田伯光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方不败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葵花宝典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任与东方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗白万剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战雪山派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战老顽童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀一灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战欧阳克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌帮外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战裘千仞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再战铁掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯重阳宫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战丘处机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再战全真</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战郭靖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战桃花岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解剑岩前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战玄慈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破打狗阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单挑乔峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮四老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕容奸计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀丁春秋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战游坦之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯鳄鱼潭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗岳老三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢连城诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯神龙岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗洪教主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯五毒教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找韦小宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗蓝凤凰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯金轮寺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗金轮王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战袁承志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大会斗唐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗金花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十大恶人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>3,5,50,55,57,64,68,69,70,56</t>
   </si>
   <si>
     <t>无用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapScene</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Configs.Jyx2ConfigBattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeamMates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动队友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTeamMates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemies</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,102,103,104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111,112,113,114,115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>301,302,303,304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111,112,113,114,115,116,117,118,119,120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,301,302,303,304,305,306,307,308,309,310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,6,7,8,140,170,84,87,145,148,92,95,153,156,136,138,163,164</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,290,289,287,286,285,110,109,108,107,106,105,240,239,238,237,236,235,234,284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,15,12,13,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,151,152,153,154,155,156</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,155,156,157,158,159,160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,91,92,93,94,95,96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,95,96,97,98,99,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>141,142,143,144,145,146,147,148,149,150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>181,182,183</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,181,189,183,190,185,186,187,188</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201,202,203,204</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,209,202,203,204,205,210,207,208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>171,172,173</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,171,172,178,179,175,176,177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>191,192,193,194,195,196,197,198,199,200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,195,192,196,194,191,193,197,198,199,200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,189,190,183,184,185,186,187,188</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,202,203,209,210,206,207,208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,171,172,179,174,175,176,177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>194,192,191</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>211,212,213,214</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,211,213,214,215,216</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,214,212,216,218,220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,33,34,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,33,34,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,31,32,33,34,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>43,241,242,243,244,245,246,247,248,249</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,122,123,124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,122,123,124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,122,123,124,125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,122,123,124,125,126,127,128,129</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>281,282,289,284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,289,284,285,286</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,289,284,285,286,287,288,289,290</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>291,292,293,294,295,296</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,291,292,293,294,295,296,297,298,299,300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,82,83,84</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,82,83,84,85,86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,81,82,83,84,85,86,87,88,89,90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>271,272,273,274,275,276,277,278</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>271,272,273,274,275,276,277,278,279,280</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,261,262,263,264,265,266,267,268,269,270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261,262,263,264,265</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>311,312,313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>311,312,313,314,315,316,317,44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>255,256,257,258</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>155,158,99,94,203,206,211,217,286,287,288,289,103,105,107,109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,102,103,104,105,106,107,108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,102,103,104,105,106,107,108,109,110,71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>221,222,223,224,225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>224,225,226,227,228</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>226,227,228,229,230,225,224,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>251,252,253,254,255</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>251,252,253,254,255,62,256,257,258,259,260</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,50,55,57,64,68,69,70,56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>78,78,121,122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,67,62,60,51,26,22,19,8,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>251,252,253,254</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,170,169,164,20,180,175,173,21,190,184,186,22,200,199,198,23,210,209,208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1018,33 +1032,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1302,91 +1602,92 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="91" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="23.4761904761905" customWidth="1"/>
+    <col min="8" max="8" width="91" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1400,19 +1701,19 @@
       <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1426,19 +1727,19 @@
       <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1452,19 +1753,19 @@
       <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1478,19 +1779,19 @@
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1504,19 +1805,19 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1530,19 +1831,19 @@
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1556,19 +1857,19 @@
       <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1582,19 +1883,19 @@
       <c r="G11">
         <v>-1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1608,19 +1909,19 @@
       <c r="G12">
         <v>-1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1634,19 +1935,19 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1660,19 +1961,19 @@
       <c r="G14">
         <v>-1</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1686,19 +1987,19 @@
       <c r="G15">
         <v>-1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1712,19 +2013,19 @@
       <c r="G16">
         <v>-1</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1738,19 +2039,19 @@
       <c r="G17">
         <v>-1</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1764,19 +2065,19 @@
       <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1790,19 +2091,19 @@
       <c r="G19">
         <v>-1</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1816,19 +2117,19 @@
       <c r="G20">
         <v>-1</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1842,19 +2143,19 @@
       <c r="G21">
         <v>-1</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1868,19 +2169,19 @@
       <c r="G22">
         <v>-1</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>223</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1894,19 +2195,19 @@
       <c r="G23">
         <v>-1</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1920,19 +2221,19 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1946,19 +2247,19 @@
       <c r="G25">
         <v>-1</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1972,19 +2273,19 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -1998,19 +2299,19 @@
       <c r="G27">
         <v>-1</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2024,19 +2325,19 @@
       <c r="G28">
         <v>-1</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2050,19 +2351,19 @@
       <c r="G29">
         <v>-1</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2076,19 +2377,19 @@
       <c r="G30">
         <v>-1</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -2102,19 +2403,19 @@
       <c r="G31">
         <v>-1</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2128,19 +2429,19 @@
       <c r="G32">
         <v>-1</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -2154,19 +2455,19 @@
       <c r="G33">
         <v>-1</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -2180,19 +2481,19 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2206,19 +2507,19 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2232,19 +2533,19 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2258,19 +2559,19 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2284,19 +2585,19 @@
       <c r="G38">
         <v>35</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2310,19 +2611,19 @@
       <c r="G39">
         <v>35</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2336,19 +2637,19 @@
       <c r="G40">
         <v>35</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2362,19 +2663,19 @@
       <c r="G41">
         <v>35</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2388,19 +2689,19 @@
       <c r="G42">
         <v>-1</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2414,19 +2715,19 @@
       <c r="G43">
         <v>-1</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2440,19 +2741,19 @@
       <c r="G44">
         <v>-1</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2466,19 +2767,19 @@
       <c r="G45">
         <v>-1</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2492,19 +2793,19 @@
       <c r="G46">
         <v>-1</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2518,19 +2819,19 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2544,19 +2845,19 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2570,19 +2871,19 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2596,19 +2897,19 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2622,19 +2923,19 @@
       <c r="G51">
         <v>-1</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2648,19 +2949,19 @@
       <c r="G52">
         <v>-1</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2674,19 +2975,19 @@
       <c r="G53">
         <v>-1</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2700,19 +3001,19 @@
       <c r="G54">
         <v>-1</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2726,19 +3027,19 @@
       <c r="G55">
         <v>36</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2752,19 +3053,19 @@
       <c r="G56">
         <v>-1</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2778,19 +3079,19 @@
       <c r="G57">
         <v>-1</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2804,19 +3105,19 @@
       <c r="G58">
         <v>-1</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2830,19 +3131,19 @@
       <c r="G59">
         <v>-1</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2856,19 +3157,19 @@
       <c r="G60">
         <v>-1</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2877,24 +3178,24 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="G61">
         <v>-1</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2908,19 +3209,19 @@
       <c r="G62">
         <v>-1</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2934,19 +3235,19 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2960,19 +3261,19 @@
       <c r="G64">
         <v>-1</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -2986,19 +3287,19 @@
       <c r="G65">
         <v>-1</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3012,19 +3313,19 @@
       <c r="G66">
         <v>-1</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -3038,19 +3339,19 @@
       <c r="G67">
         <v>-1</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -3064,19 +3365,19 @@
       <c r="G68">
         <v>-1</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3090,19 +3391,19 @@
       <c r="G69">
         <v>-1</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -3116,19 +3417,19 @@
       <c r="G70">
         <v>-1</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -3142,19 +3443,19 @@
       <c r="G71">
         <v>-1</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3168,19 +3469,19 @@
       <c r="G72">
         <v>-1</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -3194,19 +3495,19 @@
       <c r="G73">
         <v>-1</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3220,19 +3521,19 @@
       <c r="G74">
         <v>-1</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3246,19 +3547,19 @@
       <c r="G75">
         <v>-1</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3272,19 +3573,19 @@
       <c r="G76">
         <v>-1</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3298,19 +3599,19 @@
       <c r="G77">
         <v>-1</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3324,19 +3625,19 @@
       <c r="G78">
         <v>-1</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3350,19 +3651,19 @@
       <c r="G79">
         <v>-1</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3376,19 +3677,19 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3402,19 +3703,19 @@
       <c r="G81">
         <v>-1</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="H81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3428,19 +3729,19 @@
       <c r="G82">
         <v>-1</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3454,19 +3755,19 @@
       <c r="G83">
         <v>-1</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3480,19 +3781,19 @@
       <c r="G84">
         <v>-1</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3506,19 +3807,19 @@
       <c r="G85">
         <v>-1</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3532,19 +3833,19 @@
       <c r="G86">
         <v>-1</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3558,19 +3859,19 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3584,19 +3885,19 @@
       <c r="G88">
         <v>-1</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3610,19 +3911,19 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3636,19 +3937,19 @@
       <c r="G90">
         <v>-1</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3662,19 +3963,19 @@
       <c r="G91">
         <v>-1</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3688,19 +3989,19 @@
       <c r="G92">
         <v>-1</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3714,19 +4015,19 @@
       <c r="G93">
         <v>-1</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3740,19 +4041,19 @@
       <c r="G94">
         <v>-1</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3766,19 +4067,19 @@
       <c r="G95">
         <v>-1</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3792,19 +4093,19 @@
       <c r="G96">
         <v>-1</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3818,19 +4119,19 @@
       <c r="G97">
         <v>-1</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3844,19 +4145,19 @@
       <c r="G98">
         <v>-1</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3870,19 +4171,19 @@
       <c r="G99">
         <v>-1</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3896,19 +4197,19 @@
       <c r="G100">
         <v>-1</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3922,19 +4223,19 @@
       <c r="G101">
         <v>-1</v>
       </c>
-      <c r="H101" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3948,19 +4249,19 @@
       <c r="G102">
         <v>-1</v>
       </c>
-      <c r="H102" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3974,19 +4275,19 @@
       <c r="G103">
         <v>-1</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -4000,19 +4301,19 @@
       <c r="G104">
         <v>-1</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -4026,19 +4327,19 @@
       <c r="G105">
         <v>-1</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -4052,19 +4353,19 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -4078,19 +4379,19 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -4104,19 +4405,19 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -4130,19 +4431,19 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -4156,19 +4457,19 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4182,19 +4483,19 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4208,19 +4509,19 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4234,19 +4535,19 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4260,19 +4561,19 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4286,19 +4587,19 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4312,19 +4613,19 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4338,19 +4639,19 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4364,19 +4665,19 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4390,19 +4691,19 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4416,19 +4717,19 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4442,19 +4743,19 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4468,19 +4769,19 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4494,19 +4795,19 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4520,19 +4821,19 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4546,19 +4847,19 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4572,19 +4873,19 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4598,19 +4899,19 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4624,19 +4925,19 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C129" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4650,19 +4951,19 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4676,19 +4977,19 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4702,19 +5003,19 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4728,19 +5029,19 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C133" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4754,19 +5055,19 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C134" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4780,19 +5081,19 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4806,19 +5107,19 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4832,19 +5133,19 @@
       <c r="G136">
         <v>-1</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4858,19 +5159,19 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4884,19 +5185,19 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4910,19 +5211,19 @@
       <c r="G139">
         <v>-1</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4936,19 +5237,19 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4962,19 +5263,19 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4988,19 +5289,19 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5014,14 +5315,13 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>184</v>
+      <c r="H143" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>